--- a/Industry/201612-201908/HKD/MILLION/Analysis_90_6.2.4 - AV Equipment & Parts_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_90_6.2.4 - AV Equipment & Parts_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="768" yWindow="768"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -32019,6 +32020,1489 @@
     <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="4" min="3" width="11"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="10"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="4" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" t="n">
+        <v>159745.112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>171786.824</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>109443.688</v>
+      </c>
+      <c r="G2" t="n">
+        <v>171652.875</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.078</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99974.173</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-8.651999999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="n">
+        <v>81815.333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83371.496</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50282.533</v>
+      </c>
+      <c r="G3" t="n">
+        <v>76809.41099999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-7.871</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38092.146</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-24.244</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51.216</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48.532</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45.944</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44.747</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16569.593</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20875.152</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.985</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15287.586</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25996.134</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.531</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17894.768</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.054</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.373</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.152</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.968</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.145</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17.899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12055.433</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15333.319</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11613.741</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19736.814</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.718</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14283.536</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22.988</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.547</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.926</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.612</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.498</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14.287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7999.267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9871.897000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5873.408</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8759.183000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-11.272</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5786.319</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.483</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.008</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.747</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.367</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.103</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9890.627</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10186.003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5499.217</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8302.512000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-18.491</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4927.985</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-10.388</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.192</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.025</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.837</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6291.729</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7917.876</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25.846</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5370.948</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7423.34</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-6.246</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3717.531</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-30.784</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.609</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.907</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.325</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5509.188</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5135.233</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-6.788</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3801.624</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6503.485</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26.644</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3525.767</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-7.256</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.789</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2036.996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2800.374</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37.476</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2241.959</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3614.834</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.084</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2427.555</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.278</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1985.202</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2279.331</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.816</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1325.514</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2184.421</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-4.164</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1953.088</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47.346</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.327</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1976.178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2346.269</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.728</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1382.81</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2179.644</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-7.102</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1330.929</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3.752</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2329.962</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2549.314</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.414</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1933.142</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2624.566</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1218.991</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-36.942</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.529</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="n">
+        <v>899.67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>922.547</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="F14" t="n">
+        <v>690.639</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1160.073</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.747</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1099.69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>59.228</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3009.008</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2430.814</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-19.215</v>
+      </c>
+      <c r="F15" t="n">
+        <v>978.595</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1537.098</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-36.766</v>
+      </c>
+      <c r="I15" t="n">
+        <v>800.9059999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-18.158</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1346.089</v>
+      </c>
+      <c r="D16" t="n">
+        <v>999.751</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-25.729</v>
+      </c>
+      <c r="F16" t="n">
+        <v>592.276</v>
+      </c>
+      <c r="G16" t="n">
+        <v>955.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-4.446</v>
+      </c>
+      <c r="I16" t="n">
+        <v>646.121</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.090999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" t="n">
+        <v>996.537</v>
+      </c>
+      <c r="D17" t="n">
+        <v>887.76</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-10.916</v>
+      </c>
+      <c r="F17" t="n">
+        <v>370.609</v>
+      </c>
+      <c r="G17" t="n">
+        <v>627.861</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-29.276</v>
+      </c>
+      <c r="I17" t="n">
+        <v>508.519</v>
+      </c>
+      <c r="J17" t="n">
+        <v>37.212</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" t="n">
+        <v>865.375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>934.12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.944</v>
+      </c>
+      <c r="F18" t="n">
+        <v>615.448</v>
+      </c>
+      <c r="G18" t="n">
+        <v>895.8630000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-4.096</v>
+      </c>
+      <c r="I18" t="n">
+        <v>503.507</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-18.189</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1115.559</v>
+      </c>
+      <c r="D19" t="n">
+        <v>983.897</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-11.802</v>
+      </c>
+      <c r="F19" t="n">
+        <v>598.543</v>
+      </c>
+      <c r="G19" t="n">
+        <v>779.255</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-20.799</v>
+      </c>
+      <c r="I19" t="n">
+        <v>321.547</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-46.278</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" t="n">
+        <v>561.8390000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>356.36</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-36.572</v>
+      </c>
+      <c r="F20" t="n">
+        <v>240.099</v>
+      </c>
+      <c r="G20" t="n">
+        <v>407.458</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14.339</v>
+      </c>
+      <c r="I20" t="n">
+        <v>302.227</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25.876</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="n">
+        <v>294.591</v>
+      </c>
+      <c r="D21" t="n">
+        <v>379.708</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28.893</v>
+      </c>
+      <c r="F21" t="n">
+        <v>133.944</v>
+      </c>
+      <c r="G21" t="n">
+        <v>213.734</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-43.711</v>
+      </c>
+      <c r="I21" t="n">
+        <v>150.215</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12.148</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" t="n">
+        <v>234.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>216.376</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-7.551</v>
+      </c>
+      <c r="F22" t="n">
+        <v>111.019</v>
+      </c>
+      <c r="G22" t="n">
+        <v>180.329</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-16.659</v>
+      </c>
+      <c r="I22" t="n">
+        <v>122.683</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.506</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" t="n">
+        <v>390.589</v>
+      </c>
+      <c r="D23" t="n">
+        <v>299.43</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-23.339</v>
+      </c>
+      <c r="F23" t="n">
+        <v>144.142</v>
+      </c>
+      <c r="G23" t="n">
+        <v>215.03</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-28.187</v>
+      </c>
+      <c r="I23" t="n">
+        <v>114.601</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-20.494</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" t="n">
+        <v>802.689</v>
+      </c>
+      <c r="D24" t="n">
+        <v>133.266</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-83.398</v>
+      </c>
+      <c r="F24" t="n">
+        <v>83.81999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>131.566</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.276</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99.873</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19.153</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" t="n">
+        <v>462.519</v>
+      </c>
+      <c r="D25" t="n">
+        <v>310.072</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-32.96</v>
+      </c>
+      <c r="F25" t="n">
+        <v>140.912</v>
+      </c>
+      <c r="G25" t="n">
+        <v>191.614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-38.203</v>
+      </c>
+      <c r="I25" t="n">
+        <v>68.065</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-51.697</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" t="n">
+        <v>192.388</v>
+      </c>
+      <c r="D26" t="n">
+        <v>173.66</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-9.734</v>
+      </c>
+      <c r="F26" t="n">
+        <v>81.348</v>
+      </c>
+      <c r="G26" t="n">
+        <v>149.965</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-13.645</v>
+      </c>
+      <c r="I26" t="n">
+        <v>39.562</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-51.366</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="n">
+        <v>85.75700000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75.438</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-12.032</v>
+      </c>
+      <c r="F27" t="n">
+        <v>37.683</v>
+      </c>
+      <c r="G27" t="n">
+        <v>56.273</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-25.406</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30.424</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-19.264</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25.967</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.913</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-46.422</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.135</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-5.594</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.367</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-42.926</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="H29" t="n">
+        <v>61.964</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J29" t="n">
+        <v>93.396</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24.861</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-5.928</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-82.73</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-31.677</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-11.344</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A31:A32"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" width="11"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
     <col bestFit="1" customWidth="1" max="7" min="6" width="10"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
     <col bestFit="1" customWidth="1" max="10" min="9" width="10"/>
